--- a/eol/productos.xlsx
+++ b/eol/productos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evazquez\Desktop\form con precios\eol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evazquez\Desktop\PEDIDOS ARIMEX ONLINE OK\eol\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="73">
   <si>
     <t>Familia</t>
   </si>
@@ -44,7 +44,205 @@
     <t>COSTO FINAL CON PROMO</t>
   </si>
   <si>
-    <t>PROXIMAMENTE</t>
+    <t>LIFE CREAM DEVELOPER 20V X100ML</t>
+  </si>
+  <si>
+    <t>LIFE CREAM DEVELOPER 40V X1000ml</t>
+  </si>
+  <si>
+    <t>LIFE CREAM DEVELOPER 30V X1000ML</t>
+  </si>
+  <si>
+    <t>OXIDANTE</t>
+  </si>
+  <si>
+    <t>DECOLORANTE</t>
+  </si>
+  <si>
+    <t>OMNIPLEX BLEACHING POWDER BLUE 500GR</t>
+  </si>
+  <si>
+    <t>LIFE COLOR PLUS BLEACHING POWDER BLUE 500 gr</t>
+  </si>
+  <si>
+    <t>DECOLORANTE COLOR SUPREMA 500 GR</t>
+  </si>
+  <si>
+    <t>ONELY</t>
+  </si>
+  <si>
+    <t>ONELY BOTANICAL SHAMPOO 200ML</t>
+  </si>
+  <si>
+    <t>ONELY LEAVE IN SPRAY MASK 150ML</t>
+  </si>
+  <si>
+    <t>SUBLIME</t>
+  </si>
+  <si>
+    <t>ARGAN SUBLIME ELIXIR X100ML</t>
+  </si>
+  <si>
+    <t>ARGAN SUBLIME MASK X250ML</t>
+  </si>
+  <si>
+    <t>ARGAN SUBLIME SHAMPOO X250ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR REVITAL RESTORING LOTION 10X10ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR SHAMPOO 250ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR MASK 250ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR SHAMPOO X1000ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE COLOR MASK X1000ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE SHAMPOO 1000ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE VELVET MASK 1000ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE LUMINESCENCE NUTRI LOTION 12X8ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE SHAMPOO 250ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE VELVET MASK 250ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE HYDRATE</t>
+  </si>
+  <si>
+    <t>AMETHYSTE REGULATE SEBO CONTROL SHAMPOO 1000 ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE REGULATE SEBO CONTROL SHAMPOO 250 ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE REGULATE</t>
+  </si>
+  <si>
+    <t>AMETHYSTE STIMULATE HAIR LOSS CONTROL SHAMPOO 250ml</t>
+  </si>
+  <si>
+    <t>AMETHYSTE STIMULATE HAIR LOSS CONTROL  LOTION 12x8ml</t>
+  </si>
+  <si>
+    <t>AMETHYSTE STIMULATE</t>
+  </si>
+  <si>
+    <t>AMETHYSTE SILVER SHAMPOO 1000 ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE SILVER COLOURING MASK 250 ML</t>
+  </si>
+  <si>
+    <t>AMETHYSTE SILVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMETHYSTE SILVER SHAMPOO X250ML                                             </t>
+  </si>
+  <si>
+    <t>BACK BAR</t>
+  </si>
+  <si>
+    <t>BACK BAR COLOR SHAMPOO N°01 - Fig and Almond  NEW 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR COLOR SHAMPOO N°01 - Fig and Almond  NEW 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR NOURISING SHAMPOO N°02 - Argan and Honey 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR NOURISING SHAMPOO N°02 - Argan and Honey 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR GENTLE SHAMPOO N°03 - Oats and Lavender 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR GENTLE SHAMPOO N°03 - Oats and Lavender 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR REVITALIZING SHAMPOO N°04 - Natural Herbs 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR REVITALIZING SHAMPOO N°04 - Natural Herbs 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR COLOR MASK N°05 - Cream Plus 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR COLOR MASK N°05 - Cream Plus 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR EXTREME CONDITIONER N°06 - Avocado and Wheat 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR EXTREME CONDITIONER N°06 - Avocado and Wheat 250ML</t>
+  </si>
+  <si>
+    <t>BACK BAR RESTORE CONDITIONER N°07 - Betacarotene 1000ML</t>
+  </si>
+  <si>
+    <t>BACK BAR RESTORE CONDITIONER N°07 - Betacarotene 250ML</t>
+  </si>
+  <si>
+    <t>HD SMOOTHING LEAVE-IN CREAM   150ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD SMOOTH &amp; PROTECT SPRAY 300ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD Life Style MATTE FIBER PASTE NEW 2021</t>
+  </si>
+  <si>
+    <t>HD Life Style CURL CREAM AMPLIFIER NEW 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HD Life Style WAVE DEFINING FLUID   NEW 2021                                   </t>
+  </si>
+  <si>
+    <t>HD CONDITIONING SHAPING CHANTILLY 200ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD VOLUME &amp; SHINE MOUSSE 300  ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD EXTREME HAIRSPRAY 500ML    LIFESTYLE FVHDEXH22</t>
+  </si>
+  <si>
+    <t>HD EXTRA HOLD HAIRSPRAY 500ML LIFESTYLE FVLSEXS22</t>
+  </si>
+  <si>
+    <t>HD DEFINING GLOSSY WAX 100ML  LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD MATTE PASTE 50ML LIFESTYLE NEW FORMULA</t>
+  </si>
+  <si>
+    <t>HD EXTREME GEL 150ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD Life Style SILKY BOND LEAVE-IN CREAM  NEW 2021</t>
+  </si>
+  <si>
+    <t>HD CRYSTAL DROPS 100ML LIFESTYLE</t>
+  </si>
+  <si>
+    <t>HD STYLING</t>
   </si>
 </sst>
 </file>
@@ -120,7 +318,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -253,6 +451,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +521,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -335,6 +594,27 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,7 +622,97 @@
     <cellStyle name="Normal 6 2" xfId="3"/>
     <cellStyle name="Normal_Wella precios Oct 2009- lista 27" xfId="1"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="88">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -465,11 +835,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FFBFBFBF"/>
       </font>
     </dxf>
@@ -490,7 +855,97 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFBFBFBF"/>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -884,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,17 +1375,23 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
@@ -938,432 +1399,648 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="8"/>
       <c r="E6" s="6"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="8"/>
       <c r="E7" s="6"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="4"/>
       <c r="D8" s="8"/>
       <c r="E8" s="6"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="8"/>
       <c r="E9" s="6"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="8"/>
       <c r="E10" s="6"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="9"/>
       <c r="E11" s="6"/>
       <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="7"/>
       <c r="E12" s="11"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="7"/>
       <c r="E13" s="11"/>
       <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="7"/>
       <c r="E14" s="11"/>
       <c r="F14" s="20"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="7"/>
       <c r="E15" s="11"/>
       <c r="F15" s="20"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="7"/>
       <c r="E16" s="11"/>
       <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>23</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
       <c r="E17" s="11"/>
       <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>27</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
       <c r="E18" s="11"/>
       <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
       <c r="E19" s="12"/>
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="12"/>
       <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="7"/>
       <c r="E21" s="12"/>
       <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>31</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="7"/>
       <c r="E22" s="12"/>
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="7"/>
       <c r="E23" s="12"/>
       <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="7"/>
       <c r="E24" s="12"/>
       <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="7"/>
       <c r="E25" s="12"/>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="7"/>
       <c r="E26" s="13"/>
       <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>39</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="7"/>
       <c r="E27" s="13"/>
       <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>42</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="7"/>
       <c r="E28" s="13"/>
       <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>40</v>
+      </c>
       <c r="C29" s="4"/>
       <c r="D29" s="7"/>
       <c r="E29" s="13"/>
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>44</v>
+      </c>
       <c r="C30" s="4"/>
       <c r="D30" s="7"/>
       <c r="E30" s="13"/>
       <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>45</v>
+      </c>
       <c r="C31" s="4"/>
       <c r="D31" s="7"/>
       <c r="E31" s="13"/>
       <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>46</v>
+      </c>
       <c r="C32" s="4"/>
       <c r="D32" s="7"/>
       <c r="E32" s="13"/>
       <c r="F32" s="20"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
+      <c r="A33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="C33" s="4"/>
       <c r="D33" s="7"/>
       <c r="E33" s="13"/>
       <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="4"/>
       <c r="D34" s="7"/>
       <c r="E34" s="13"/>
       <c r="F34" s="20"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>49</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="7"/>
       <c r="E35" s="12"/>
       <c r="F35" s="20"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>50</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="7"/>
       <c r="E36" s="12"/>
       <c r="F36" s="20"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>51</v>
+      </c>
       <c r="C37" s="4"/>
       <c r="D37" s="7"/>
       <c r="E37" s="12"/>
       <c r="F37" s="20"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
+      <c r="A38" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>52</v>
+      </c>
       <c r="C38" s="4"/>
       <c r="D38" s="7"/>
       <c r="E38" s="12"/>
       <c r="F38" s="20"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
+      <c r="A39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="7"/>
       <c r="E39" s="12"/>
       <c r="F39" s="20"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="7"/>
       <c r="E40" s="12"/>
       <c r="F40" s="20"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
+      <c r="A41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="C41" s="4"/>
       <c r="D41" s="7"/>
       <c r="E41" s="12"/>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
+      <c r="A42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>56</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="7"/>
       <c r="E42" s="12"/>
       <c r="F42" s="20"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>57</v>
+      </c>
       <c r="C43" s="4"/>
       <c r="D43" s="7"/>
       <c r="E43" s="12"/>
       <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
+      <c r="A44" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>58</v>
+      </c>
       <c r="C44" s="4"/>
       <c r="D44" s="7"/>
       <c r="E44" s="12"/>
       <c r="F44" s="20"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>59</v>
+      </c>
       <c r="C45" s="4"/>
       <c r="D45" s="7"/>
       <c r="E45" s="12"/>
       <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
+      <c r="A46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>60</v>
+      </c>
       <c r="C46" s="4"/>
       <c r="D46" s="7"/>
       <c r="E46" s="12"/>
       <c r="F46" s="20"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
+      <c r="A47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>61</v>
+      </c>
       <c r="C47" s="4"/>
       <c r="D47" s="7"/>
       <c r="E47" s="12"/>
       <c r="F47" s="20"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>62</v>
+      </c>
       <c r="C48" s="4"/>
       <c r="D48" s="7"/>
       <c r="E48" s="12"/>
       <c r="F48" s="20"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="7"/>
       <c r="E49" s="12"/>
       <c r="F49" s="20"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="D50" s="7"/>
       <c r="E50" s="12"/>
       <c r="F50" s="20"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
+      <c r="A51" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="C51" s="4"/>
       <c r="D51" s="7"/>
       <c r="E51" s="12"/>
       <c r="F51" s="20"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="12"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="11"/>
       <c r="F52" s="20"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
+      <c r="A53" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>67</v>
+      </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="12"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="11"/>
       <c r="F53" s="20"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>68</v>
+      </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="12"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="11"/>
       <c r="F54" s="20"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>69</v>
+      </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="11"/>
       <c r="F55" s="20"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="11"/>
       <c r="F56" s="20"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="11"/>
@@ -1465,36 +2142,36 @@
       <c r="E69" s="11"/>
       <c r="F69" s="20"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="11"/>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="20"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="11"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
       <c r="F71" s="20"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="11"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="16"/>
       <c r="F72" s="20"/>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="18"/>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="16"/>
       <c r="F73" s="20"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -1548,7 +2225,7 @@
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="16"/>
       <c r="F80" s="20"/>
@@ -1628,7 +2305,7 @@
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
+      <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="16"/>
       <c r="F90" s="20"/>
@@ -1636,7 +2313,7 @@
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
+      <c r="C91" s="10"/>
       <c r="D91" s="10"/>
       <c r="E91" s="16"/>
       <c r="F91" s="20"/>
@@ -1793,293 +2470,319 @@
       <c r="E110" s="16"/>
       <c r="F110" s="20"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="4"/>
-      <c r="B111" s="14"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="16"/>
-      <c r="F111" s="20"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="4"/>
-      <c r="B112" s="14"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="16"/>
-      <c r="F112" s="20"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="4"/>
-      <c r="B113" s="14"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="16"/>
-      <c r="F113" s="20"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A8:A12 C43:D44 B46 A35:A54 C46:D48">
-    <cfRule type="expression" dxfId="52" priority="36">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:D7 A19:A34">
-    <cfRule type="expression" dxfId="51" priority="37">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50:D50 C52:D53 D51">
-    <cfRule type="expression" dxfId="50" priority="56">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B10:B11 B6:D6 A5:A6 C8:D11">
-    <cfRule type="expression" dxfId="49" priority="55">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 D5 B8:B9">
-    <cfRule type="expression" dxfId="48" priority="54">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="47" priority="53">
+  <conditionalFormatting sqref="A8:A12 C43:D44 C46:D47 A44">
+    <cfRule type="expression" dxfId="63" priority="55">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:D7 A23:A43">
+    <cfRule type="expression" dxfId="62" priority="56">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:D50">
+    <cfRule type="expression" dxfId="61" priority="75">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:D6 C8:D11">
+    <cfRule type="expression" dxfId="60" priority="74">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="59" priority="73">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="46" priority="52">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13:B14 B17:B18 C13:D18 A12:A18">
-    <cfRule type="expression" dxfId="45" priority="51">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12 D12 B15">
-    <cfRule type="expression" dxfId="44" priority="50">
+    <cfRule type="expression" dxfId="58" priority="71">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13:D18 A12:A18">
+    <cfRule type="expression" dxfId="57" priority="70">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="56" priority="69">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="43" priority="49">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36:B37 B43:B44 B50:B51 B40:B41 B47:B48 C36:D41">
-    <cfRule type="expression" dxfId="42" priority="48">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35 B42 B49 D35 D42 D49 B38:B39 B52:B53">
-    <cfRule type="expression" dxfId="41" priority="47">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35 C42 C49">
-    <cfRule type="expression" dxfId="40" priority="46">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20:B21 B24:B25 C20:D25 A19:A25">
+    <cfRule type="expression" dxfId="55" priority="68">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36:D41">
+    <cfRule type="expression" dxfId="54" priority="67">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35 D42 D48">
+    <cfRule type="expression" dxfId="53" priority="66">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35 C42 C48">
+    <cfRule type="expression" dxfId="52" priority="65">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:D25 A23:A25">
+    <cfRule type="expression" dxfId="51" priority="64">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="expression" dxfId="50" priority="63">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="expression" dxfId="49" priority="62">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:D51">
+    <cfRule type="expression" dxfId="48" priority="60">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:D34 A26:A43">
+    <cfRule type="expression" dxfId="47" priority="58">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:D70 A58:D61 C52:D57">
+    <cfRule type="expression" dxfId="46" priority="54">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:E18 E35:E51">
+    <cfRule type="expression" dxfId="45" priority="53">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E25">
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:E34">
+    <cfRule type="expression" dxfId="43" priority="51">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52:E54 E70">
+    <cfRule type="expression" dxfId="42" priority="49">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="expression" dxfId="41" priority="46">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="expression" dxfId="40" priority="47">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B79:B80 B86:B87 B83:B84 B99:B102 B105:B106 B93 B108:B109 B90:B91">
     <cfRule type="expression" dxfId="39" priority="45">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19 D19 B22:B23">
+  <conditionalFormatting sqref="B78 B85 B92 B71 B107 B81:B82 B88:B89 B97:B98 B103:B104 B110">
     <cfRule type="expression" dxfId="38" priority="44">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
+  <conditionalFormatting sqref="B72:B77">
     <cfRule type="expression" dxfId="37" priority="43">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
+  <conditionalFormatting sqref="B94:B96">
     <cfRule type="expression" dxfId="36" priority="42">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B54">
-    <cfRule type="expression" dxfId="35" priority="40">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54:D54">
-    <cfRule type="expression" dxfId="34" priority="41">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26:B27 B29:B30 B32:B33 C26:D34 A26:A34">
+  <conditionalFormatting sqref="C71:C77">
+    <cfRule type="expression" dxfId="35" priority="41">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="expression" dxfId="34" priority="40">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
     <cfRule type="expression" dxfId="33" priority="39">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B28 B31 B34">
+  <conditionalFormatting sqref="C84">
     <cfRule type="expression" dxfId="32" priority="38">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="expression" dxfId="31" priority="57">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:D73 A55:D64">
-    <cfRule type="expression" dxfId="30" priority="35">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E18">
-    <cfRule type="expression" dxfId="29" priority="34">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E25">
-    <cfRule type="expression" dxfId="28" priority="33">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26:E34">
-    <cfRule type="expression" dxfId="27" priority="32">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E35:E54">
-    <cfRule type="expression" dxfId="26" priority="31">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E55:E57 E73">
-    <cfRule type="expression" dxfId="25" priority="30">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="24" priority="29">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="23" priority="28">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
+  <conditionalFormatting sqref="C87">
+    <cfRule type="expression" dxfId="31" priority="37">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="expression" dxfId="30" priority="36">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="expression" dxfId="29" priority="35">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C85">
+    <cfRule type="expression" dxfId="28" priority="34">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="expression" dxfId="27" priority="33">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E71:E110">
+    <cfRule type="expression" dxfId="26" priority="32">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:A110">
+    <cfRule type="expression" dxfId="25" priority="31">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A62:D69">
+    <cfRule type="expression" dxfId="24" priority="30">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62:E69">
+    <cfRule type="expression" dxfId="23" priority="29">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55:E61">
     <cfRule type="expression" dxfId="22" priority="27">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B82:B83 B89:B90 B86:B87 B102:B105 B108:B109 B96 B111:B112 B93:B94">
-    <cfRule type="expression" dxfId="21" priority="26">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B81 B88 B95 B74 B110 B84:B85 B91:B92 B100:B101 B106:B107 B113">
-    <cfRule type="expression" dxfId="20" priority="25">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B75:B80">
-    <cfRule type="expression" dxfId="19" priority="24">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97:B99">
-    <cfRule type="expression" dxfId="18" priority="23">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74:C80">
-    <cfRule type="expression" dxfId="17" priority="22">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="16" priority="21">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="expression" dxfId="15" priority="20">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="14" priority="19">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="expression" dxfId="13" priority="18">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="12" priority="17">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C85">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E74:E113">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74:A113">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A65:D72">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E65:E72">
-    <cfRule type="expression" dxfId="5" priority="10">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E58:E64">
-    <cfRule type="expression" dxfId="4" priority="8">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B4 D2:D4">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>#REF!="SIN STOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A4">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="D2:D4">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A5 B44:B55">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B4">
+    <cfRule type="expression" dxfId="18" priority="18">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:A7">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B6">
+    <cfRule type="expression" dxfId="16" priority="15">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:B9">
+    <cfRule type="expression" dxfId="14" priority="14">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B12">
+    <cfRule type="expression" dxfId="13" priority="13">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:B15">
+    <cfRule type="expression" dxfId="11" priority="11">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:B22">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A22">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:B24">
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:B29">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:B43">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>#REF!="SIN STOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45:A57">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>#REF!="SIN STOCK"</formula>
     </cfRule>
   </conditionalFormatting>
